--- a/team_specific_matrix/Wyoming_A.xlsx
+++ b/team_specific_matrix/Wyoming_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1964285714285714</v>
+        <v>0.1978798586572438</v>
       </c>
       <c r="C2">
-        <v>0.5669642857142857</v>
+        <v>0.558303886925795</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01339285714285714</v>
+        <v>0.01413427561837456</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.15625</v>
+        <v>0.1590106007067138</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06696428571428571</v>
+        <v>0.07067137809187279</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0078125</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C3">
-        <v>0.015625</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.046875</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7734375</v>
+        <v>0.7610062893081762</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.15625</v>
+        <v>0.1761006289308176</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03333333333333333</v>
+        <v>0.025</v>
       </c>
       <c r="P4">
-        <v>0.6333333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06741573033707865</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005617977528089887</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05617977528089887</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2921348314606741</v>
+        <v>0.3286384976525822</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01685393258426966</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.151685393258427</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="R6">
-        <v>0.06741573033707865</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="S6">
-        <v>0.3426966292134832</v>
+        <v>0.323943661971831</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08421052631578947</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01052631578947368</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="E7">
-        <v>0.01052631578947368</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="F7">
-        <v>0.09473684210526316</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1052631578947368</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2315789473684211</v>
+        <v>0.2479338842975207</v>
       </c>
       <c r="R7">
-        <v>0.04210526315789474</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="S7">
-        <v>0.4210526315789473</v>
+        <v>0.4214876033057851</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1146131805157593</v>
+        <v>0.124390243902439</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02578796561604585</v>
+        <v>0.02682926829268293</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06876790830945559</v>
+        <v>0.07073170731707316</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1174785100286533</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0171919770773639</v>
+        <v>0.01707317073170732</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1375358166189112</v>
+        <v>0.1390243902439025</v>
       </c>
       <c r="R8">
-        <v>0.0830945558739255</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="S8">
-        <v>0.4355300859598854</v>
+        <v>0.424390243902439</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.124223602484472</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01863354037267081</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1055900621118012</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08074534161490683</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03105590062111801</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2173913043478261</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R9">
-        <v>0.124223602484472</v>
+        <v>0.109375</v>
       </c>
       <c r="S9">
-        <v>0.2981366459627329</v>
+        <v>0.3229166666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1190765492102066</v>
+        <v>0.1215953307392996</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01944106925880923</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="E10">
-        <v>0.001215066828675577</v>
+        <v>0.0009727626459143969</v>
       </c>
       <c r="F10">
-        <v>0.07776427703523693</v>
+        <v>0.07295719844357977</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1069258809234508</v>
+        <v>0.1138132295719844</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01215066828675577</v>
+        <v>0.01459143968871595</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1931956257594168</v>
+        <v>0.1964980544747082</v>
       </c>
       <c r="R10">
-        <v>0.08869987849331713</v>
+        <v>0.08657587548638132</v>
       </c>
       <c r="S10">
-        <v>0.3815309842041312</v>
+        <v>0.3735408560311284</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1208053691275168</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0738255033557047</v>
+        <v>0.078125</v>
       </c>
       <c r="K11">
-        <v>0.1543624161073825</v>
+        <v>0.171875</v>
       </c>
       <c r="L11">
-        <v>0.6510067114093959</v>
+        <v>0.6197916666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6262626262626263</v>
+        <v>0.6370967741935484</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.303030303030303</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="K12">
-        <v>0.0101010101010101</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L12">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0505050505050505</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65625</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01986754966887417</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1854304635761589</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="I15">
-        <v>0.07947019867549669</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="J15">
-        <v>0.3708609271523179</v>
+        <v>0.3945945945945946</v>
       </c>
       <c r="K15">
-        <v>0.03311258278145696</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01986754966887417</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03973509933774835</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2516556291390729</v>
+        <v>0.2378378378378379</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02027027027027027</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2027027027027027</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="I16">
-        <v>0.1081081081081081</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="J16">
-        <v>0.3986486486486486</v>
+        <v>0.3924731182795699</v>
       </c>
       <c r="K16">
-        <v>0.08783783783783784</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01351351351351351</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05405405405405406</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1148648648648649</v>
+        <v>0.1021505376344086</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02422145328719723</v>
+        <v>0.03089887640449438</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2110726643598616</v>
+        <v>0.1966292134831461</v>
       </c>
       <c r="I17">
-        <v>0.1487889273356401</v>
+        <v>0.1320224719101123</v>
       </c>
       <c r="J17">
-        <v>0.3217993079584775</v>
+        <v>0.3398876404494382</v>
       </c>
       <c r="K17">
-        <v>0.07958477508650519</v>
+        <v>0.09269662921348315</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02076124567474048</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05190311418685121</v>
+        <v>0.05898876404494382</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1418685121107267</v>
+        <v>0.1320224719101123</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0145985401459854</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1678832116788321</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="I18">
-        <v>0.08759124087591241</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="J18">
-        <v>0.4014598540145985</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="K18">
-        <v>0.0948905109489051</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0291970802919708</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08759124087591241</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1167883211678832</v>
+        <v>0.1280487804878049</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02453271028037383</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2429906542056075</v>
+        <v>0.2373540856031128</v>
       </c>
       <c r="I19">
-        <v>0.09228971962616822</v>
+        <v>0.09241245136186771</v>
       </c>
       <c r="J19">
-        <v>0.3633177570093458</v>
+        <v>0.3647859922178988</v>
       </c>
       <c r="K19">
-        <v>0.07710280373831775</v>
+        <v>0.07976653696498054</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01985981308411215</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="N19">
-        <v>0.00116822429906542</v>
+        <v>0.0009727626459143969</v>
       </c>
       <c r="O19">
-        <v>0.07710280373831775</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1016355140186916</v>
+        <v>0.1001945525291829</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wyoming_A.xlsx
+++ b/team_specific_matrix/Wyoming_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1978798586572438</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="C2">
-        <v>0.558303886925795</v>
+        <v>0.5657492354740061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01413427561837456</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1590106007067138</v>
+        <v>0.1529051987767584</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07067137809187279</v>
+        <v>0.07033639143730887</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006289308176100629</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C3">
-        <v>0.01257861635220126</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0440251572327044</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7610062893081762</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1761006289308176</v>
+        <v>0.1881720430107527</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.025</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P4">
-        <v>0.675</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.2954545454545455</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06103286384976526</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009389671361502348</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04694835680751173</v>
+        <v>0.05150214592274678</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3286384976525822</v>
+        <v>0.3218884120171674</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0187793427230047</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1408450704225352</v>
+        <v>0.1416309012875537</v>
       </c>
       <c r="R6">
-        <v>0.07042253521126761</v>
+        <v>0.06866952789699571</v>
       </c>
       <c r="S6">
-        <v>0.323943661971831</v>
+        <v>0.3304721030042919</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08264462809917356</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02479338842975207</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="E7">
-        <v>0.008264462809917356</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="F7">
-        <v>0.0743801652892562</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09917355371900827</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2479338842975207</v>
+        <v>0.2312925170068027</v>
       </c>
       <c r="R7">
-        <v>0.04132231404958678</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="S7">
-        <v>0.4214876033057851</v>
+        <v>0.4421768707482993</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.124390243902439</v>
+        <v>0.1239130434782609</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02682926829268293</v>
+        <v>0.02391304347826087</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="F8">
-        <v>0.07073170731707316</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1097560975609756</v>
+        <v>0.1021739130434783</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01707317073170732</v>
+        <v>0.01521739130434783</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1390243902439025</v>
+        <v>0.1543478260869565</v>
       </c>
       <c r="R8">
-        <v>0.08780487804878048</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="S8">
-        <v>0.424390243902439</v>
+        <v>0.4260869565217391</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1197916666666667</v>
+        <v>0.1209302325581395</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02083333333333333</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08854166666666667</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1041666666666667</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02604166666666667</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2083333333333333</v>
+        <v>0.1953488372093023</v>
       </c>
       <c r="R9">
-        <v>0.109375</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="S9">
-        <v>0.3229166666666667</v>
+        <v>0.3441860465116279</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1215953307392996</v>
+        <v>0.1292576419213974</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01945525291828794</v>
+        <v>0.01834061135371179</v>
       </c>
       <c r="E10">
-        <v>0.0009727626459143969</v>
+        <v>0.0008733624454148472</v>
       </c>
       <c r="F10">
-        <v>0.07295719844357977</v>
+        <v>0.07161572052401746</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1138132295719844</v>
+        <v>0.1117903930131004</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01459143968871595</v>
+        <v>0.01572052401746725</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1964980544747082</v>
+        <v>0.1947598253275109</v>
       </c>
       <c r="R10">
-        <v>0.08657587548638132</v>
+        <v>0.08820960698689956</v>
       </c>
       <c r="S10">
-        <v>0.3735408560311284</v>
+        <v>0.3694323144104804</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1302083333333333</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.078125</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K11">
-        <v>0.171875</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="L11">
-        <v>0.6197916666666666</v>
+        <v>0.6244343891402715</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6370967741935484</v>
+        <v>0.6573426573426573</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2741935483870968</v>
+        <v>0.2587412587412588</v>
       </c>
       <c r="K12">
-        <v>0.01612903225806452</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="L12">
-        <v>0.03225806451612903</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04032258064516129</v>
+        <v>0.04195804195804196</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6944444444444444</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05555555555555555</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03243243243243243</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1675675675675676</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="I15">
-        <v>0.07027027027027027</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="J15">
-        <v>0.3945945945945946</v>
+        <v>0.3894230769230769</v>
       </c>
       <c r="K15">
-        <v>0.04324324324324325</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01621621621621622</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03783783783783784</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2378378378378379</v>
+        <v>0.2451923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02688172043010753</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2096774193548387</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="I16">
-        <v>0.1236559139784946</v>
+        <v>0.1220657276995305</v>
       </c>
       <c r="J16">
-        <v>0.3924731182795699</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="K16">
-        <v>0.08064516129032258</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01075268817204301</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05376344086021505</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1021505376344086</v>
+        <v>0.1126760563380282</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03089887640449438</v>
+        <v>0.03</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1966292134831461</v>
+        <v>0.1975</v>
       </c>
       <c r="I17">
-        <v>0.1320224719101123</v>
+        <v>0.135</v>
       </c>
       <c r="J17">
-        <v>0.3398876404494382</v>
+        <v>0.3375</v>
       </c>
       <c r="K17">
-        <v>0.09269662921348315</v>
+        <v>0.0925</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01685393258426966</v>
+        <v>0.0175</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05898876404494382</v>
+        <v>0.055</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1320224719101123</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01219512195121951</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1646341463414634</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="I18">
-        <v>0.09146341463414634</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.4146341463414634</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.08536585365853659</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03048780487804878</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07317073170731707</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1280487804878049</v>
+        <v>0.1277777777777778</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02723735408560311</v>
+        <v>0.02544529262086514</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2373540856031128</v>
+        <v>0.2298558100084818</v>
       </c>
       <c r="I19">
-        <v>0.09241245136186771</v>
+        <v>0.08821034775233248</v>
       </c>
       <c r="J19">
-        <v>0.3647859922178988</v>
+        <v>0.364715860899067</v>
       </c>
       <c r="K19">
-        <v>0.07976653696498054</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01945525291828794</v>
+        <v>0.02120441051738762</v>
       </c>
       <c r="N19">
-        <v>0.0009727626459143969</v>
+        <v>0.0008481764206955047</v>
       </c>
       <c r="O19">
-        <v>0.07782101167315175</v>
+        <v>0.07888040712468193</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1001945525291829</v>
+        <v>0.1068702290076336</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wyoming_A.xlsx
+++ b/team_specific_matrix/Wyoming_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1926605504587156</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.5657492354740061</v>
+        <v>0.5744047619047619</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01834862385321101</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529051987767584</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07033639143730887</v>
+        <v>0.06845238095238096</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01075268817204301</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="C3">
-        <v>0.01075268817204301</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03763440860215054</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7526881720430108</v>
+        <v>0.7577319587628866</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1881720430107527</v>
+        <v>0.1804123711340206</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P4">
-        <v>0.6818181818181818</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2954545454545455</v>
+        <v>0.2826086956521739</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06008583690987124</v>
+        <v>0.06198347107438017</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008583690987124463</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05150214592274678</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3218884120171674</v>
+        <v>0.3223140495867768</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01716738197424893</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1416309012875537</v>
+        <v>0.140495867768595</v>
       </c>
       <c r="R6">
-        <v>0.06866952789699571</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="S6">
-        <v>0.3304721030042919</v>
+        <v>0.3305785123966942</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08843537414965986</v>
+        <v>0.08609271523178808</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0272108843537415</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E7">
-        <v>0.006802721088435374</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="F7">
-        <v>0.06802721088435375</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09523809523809523</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2312925170068027</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="R7">
-        <v>0.04081632653061224</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="S7">
-        <v>0.4421768707482993</v>
+        <v>0.4437086092715232</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1239130434782609</v>
+        <v>0.1247311827956989</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02391304347826087</v>
+        <v>0.02365591397849462</v>
       </c>
       <c r="E8">
-        <v>0.002173913043478261</v>
+        <v>0.002150537634408602</v>
       </c>
       <c r="F8">
-        <v>0.06956521739130435</v>
+        <v>0.06881720430107527</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1021739130434783</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01521739130434783</v>
+        <v>0.01505376344086022</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1543478260869565</v>
+        <v>0.1526881720430107</v>
       </c>
       <c r="R8">
-        <v>0.08260869565217391</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="S8">
-        <v>0.4260869565217391</v>
+        <v>0.4258064516129032</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1209302325581395</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03255813953488372</v>
+        <v>0.03493449781659388</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07906976744186046</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1069767441860465</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02325581395348837</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1953488372093023</v>
+        <v>0.1965065502183406</v>
       </c>
       <c r="R9">
-        <v>0.09767441860465116</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="S9">
-        <v>0.3441860465116279</v>
+        <v>0.3406113537117904</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1292576419213974</v>
+        <v>0.1297388374052232</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01834061135371179</v>
+        <v>0.01769165964616681</v>
       </c>
       <c r="E10">
-        <v>0.0008733624454148472</v>
+        <v>0.0008424599831508003</v>
       </c>
       <c r="F10">
-        <v>0.07161572052401746</v>
+        <v>0.07245155855096883</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1117903930131004</v>
+        <v>0.1128896377422072</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01572052401746725</v>
+        <v>0.01516427969671441</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1947598253275109</v>
+        <v>0.1946082561078349</v>
       </c>
       <c r="R10">
-        <v>0.08820960698689956</v>
+        <v>0.08930075821398484</v>
       </c>
       <c r="S10">
-        <v>0.3694323144104804</v>
+        <v>0.367312552653749</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1266968325791855</v>
+        <v>0.1283185840707965</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07692307692307693</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="K11">
-        <v>0.1719457013574661</v>
+        <v>0.1725663716814159</v>
       </c>
       <c r="L11">
-        <v>0.6244343891402715</v>
+        <v>0.6238938053097345</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6573426573426573</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2587412587412588</v>
+        <v>0.2534246575342466</v>
       </c>
       <c r="K12">
-        <v>0.01398601398601399</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="L12">
-        <v>0.02797202797202797</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04195804195804196</v>
+        <v>0.04794520547945205</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7391304347826086</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2173913043478261</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02884615384615385</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1730769230769231</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="I15">
-        <v>0.0673076923076923</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="J15">
-        <v>0.3894230769230769</v>
+        <v>0.3896713615023474</v>
       </c>
       <c r="K15">
-        <v>0.03846153846153846</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01923076923076923</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03846153846153846</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2451923076923077</v>
+        <v>0.244131455399061</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02816901408450704</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2065727699530517</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="I16">
-        <v>0.1220657276995305</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="J16">
-        <v>0.3802816901408451</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="K16">
-        <v>0.07511737089201878</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02347417840375587</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05164319248826291</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1126760563380282</v>
+        <v>0.1126126126126126</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1975</v>
+        <v>0.1908212560386473</v>
       </c>
       <c r="I17">
-        <v>0.135</v>
+        <v>0.1400966183574879</v>
       </c>
       <c r="J17">
-        <v>0.3375</v>
+        <v>0.3381642512077295</v>
       </c>
       <c r="K17">
-        <v>0.0925</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0175</v>
+        <v>0.01690821256038647</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.055</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.135</v>
+        <v>0.1352657004830918</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01111111111111111</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1722222222222222</v>
+        <v>0.1711229946524064</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.4010695187165775</v>
       </c>
       <c r="K18">
-        <v>0.08888888888888889</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02777777777777778</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07222222222222222</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1277777777777778</v>
+        <v>0.1283422459893048</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02544529262086514</v>
+        <v>0.0256198347107438</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2298558100084818</v>
+        <v>0.2264462809917355</v>
       </c>
       <c r="I19">
-        <v>0.08821034775233248</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J19">
-        <v>0.364715860899067</v>
+        <v>0.3669421487603306</v>
       </c>
       <c r="K19">
-        <v>0.08396946564885496</v>
+        <v>0.08347107438016529</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02120441051738762</v>
+        <v>0.02148760330578512</v>
       </c>
       <c r="N19">
-        <v>0.0008481764206955047</v>
+        <v>0.0008264462809917355</v>
       </c>
       <c r="O19">
-        <v>0.07888040712468193</v>
+        <v>0.07933884297520662</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1068702290076336</v>
+        <v>0.1049586776859504</v>
       </c>
     </row>
   </sheetData>
